--- a/InputData/trans/TTLE/Transportation Technology Logit Exponents.xlsx
+++ b/InputData/trans/TTLE/Transportation Technology Logit Exponents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\TTLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/NJ/trans/TTLE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C60B419-11F2-43F1-885F-AC9C7F6CA74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C55451A0-457C-BE4B-AE76-77A65BE4D737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ships</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>based on the ranges in Table 5 of the cited EPA documentation.</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
   </si>
 </sst>
 </file>
@@ -117,7 +120,7 @@
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
     <numFmt numFmtId="165" formatCode="#,##0_)"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,7 +785,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -797,6 +800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="20% - Accent1" xfId="33" builtinId="30" customBuiltin="1"/>
@@ -1224,23 +1228,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="45.453125" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1248,229 +1258,229 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" s="2" customFormat="1">
       <c r="A4" s="1"/>
       <c r="B4" s="7">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" s="2" customFormat="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" s="2" customFormat="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" s="2" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" s="2" customFormat="1">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" s="2" customFormat="1"/>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="2" customFormat="1"/>
+    <row r="31" spans="1:2" s="2" customFormat="1"/>
+    <row r="32" spans="1:2" s="2" customFormat="1"/>
+    <row r="33" spans="2:2" s="2" customFormat="1"/>
+    <row r="34" spans="2:2" s="2" customFormat="1"/>
+    <row r="35" spans="2:2" s="2" customFormat="1"/>
+    <row r="36" spans="2:2">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2">
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2">
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2">
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2">
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2">
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2">
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2">
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2">
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2">
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2">
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2">
       <c r="B69" s="2"/>
     </row>
   </sheetData>
@@ -1490,14 +1500,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -1508,7 +1518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1519,7 +1529,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1530,7 +1540,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1541,7 +1551,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1552,7 +1562,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1573,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>

--- a/InputData/trans/TTLE/Transportation Technology Logit Exponents.xlsx
+++ b/InputData/trans/TTLE/Transportation Technology Logit Exponents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NJ\trans\TTLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\TTLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{238154C6-0412-4910-9F16-96456C862D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CC5EDA-16E8-45C6-851B-8000B937503F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="915" windowWidth="19560" windowHeight="17085" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31365" yWindow="2355" windowWidth="21585" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>ships</t>
   </si>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t>For more on this, see the "Unmodified Logit" equation description at:</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
   </si>
 </sst>
 </file>
@@ -250,7 +247,7 @@
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
     <numFmt numFmtId="165" formatCode="#,##0_)"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -915,7 +912,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -924,7 +921,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="20% - Accent1" xfId="33" builtinId="30" customBuiltin="1"/>
@@ -1318,29 +1314,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="4">
-        <v>45310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1348,57 +1338,57 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="1"/>
     </row>
   </sheetData>
@@ -1415,44 +1405,44 @@
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1469,7 +1459,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1483,7 +1473,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1497,7 +1487,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1514,7 +1504,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1531,7 +1521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1548,7 +1538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1565,7 +1555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1579,7 +1569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1593,7 +1583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1607,7 +1597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1624,7 +1614,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1638,7 +1628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1655,7 +1645,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1672,7 +1662,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1689,7 +1679,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1706,7 +1696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1723,7 +1713,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1737,12 +1727,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1756,7 +1746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1770,7 +1760,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -1784,7 +1774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1798,7 +1788,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -1812,7 +1802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1839,17 +1829,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -1860,7 +1850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1868,10 +1858,10 @@
         <v>-80</v>
       </c>
       <c r="C2">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1882,7 +1872,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1893,7 +1883,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1904,7 +1894,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1915,7 +1905,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
